--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-328360.0348831216</v>
+        <v>-330992.3502066117</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>309.3807640209534</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>153.4420422072948</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906496</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833728</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>197.9418092526708</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>212.0113654906097</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>95.36241034954413</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>134.0227505959596</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111.8309756182706</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>144.351536537913</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>262.9666355758073</v>
       </c>
       <c r="G8" t="n">
-        <v>318.4022983460421</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>69.74667825787186</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>104.4906595130011</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>35.87371454923415</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1424,13 +1424,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>35.23631477519695</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>245.8640357413583</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182139</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>103.8784673763394</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>45.31583743121314</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>118.8520688186505</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206833</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>124.4121185570315</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>194.0641876011614</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>118.6708469029954</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>258.7598825930173</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>23.6255456814127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>165.8053198049113</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>83.87284639171752</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>94.64226186542875</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3895,19 +3895,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261734</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308925</v>
       </c>
       <c r="G43" t="n">
         <v>141.2394908002291</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352485</v>
@@ -3955,16 +3955,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>974.430089661817</v>
+        <v>733.2681945066188</v>
       </c>
       <c r="C2" t="n">
-        <v>974.430089661817</v>
+        <v>364.3056775662071</v>
       </c>
       <c r="D2" t="n">
-        <v>974.430089661817</v>
+        <v>364.3056775662071</v>
       </c>
       <c r="E2" t="n">
-        <v>974.430089661817</v>
+        <v>364.3056775662071</v>
       </c>
       <c r="F2" t="n">
-        <v>563.4441848722093</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640839</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640839</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073763</v>
+        <v>293.3053724073753</v>
       </c>
       <c r="K2" t="n">
-        <v>605.2571586872677</v>
+        <v>605.2571586872803</v>
       </c>
       <c r="L2" t="n">
-        <v>842.8799399054598</v>
+        <v>842.8799399054703</v>
       </c>
       <c r="M2" t="n">
-        <v>1138.950506463063</v>
+        <v>1138.950506463071</v>
       </c>
       <c r="N2" t="n">
-        <v>1444.425612698648</v>
+        <v>1444.425612698655</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015283</v>
+        <v>1719.541832015287</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394154</v>
+        <v>2238.426880394156</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466514</v>
+        <v>2550.866182466516</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="V2" t="n">
-        <v>2258.929878797415</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="W2" t="n">
-        <v>1906.161223527301</v>
+        <v>1883.473124807632</v>
       </c>
       <c r="X2" t="n">
-        <v>1751.16926170175</v>
+        <v>1510.007366546552</v>
       </c>
       <c r="Y2" t="n">
-        <v>1361.029929725939</v>
+        <v>1119.868034570741</v>
       </c>
     </row>
     <row r="3">
@@ -4383,64 +4383,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093631</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282361</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669849</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615294</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884144</v>
+        <v>320.7307563884148</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686806</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093836</v>
+        <v>85.99742130093844</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369554</v>
+        <v>201.9455071369548</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496874</v>
+        <v>585.1891840496857</v>
       </c>
       <c r="L3" t="n">
-        <v>966.4070903028428</v>
+        <v>1161.91199915294</v>
       </c>
       <c r="M3" t="n">
-        <v>1230.34662179833</v>
+        <v>1425.851530648426</v>
       </c>
       <c r="N3" t="n">
-        <v>1515.680492231663</v>
+        <v>1711.185401081757</v>
       </c>
       <c r="O3" t="n">
-        <v>2144.409140067085</v>
+        <v>1949.990352833214</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020794</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128891</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259862</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329431</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>315.651713046108</v>
+        <v>1766.570937199875</v>
       </c>
       <c r="C4" t="n">
-        <v>315.651713046108</v>
+        <v>1766.570937199875</v>
       </c>
       <c r="D4" t="n">
-        <v>315.651713046108</v>
+        <v>1766.570937199875</v>
       </c>
       <c r="E4" t="n">
-        <v>167.7386194637149</v>
+        <v>1766.570937199875</v>
       </c>
       <c r="F4" t="n">
-        <v>167.7386194637149</v>
+        <v>1766.570937199875</v>
       </c>
       <c r="G4" t="n">
-        <v>167.7386194637149</v>
+        <v>1598.249164792998</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637149</v>
+        <v>1446.529076243584</v>
       </c>
       <c r="I4" t="n">
-        <v>51.79985532281972</v>
+        <v>1330.590312102689</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>1332.824984110053</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159875</v>
+        <v>1466.334073395855</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341317</v>
+        <v>1692.706176713999</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666723</v>
+        <v>1941.772943046538</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092733</v>
+        <v>2190.352074789138</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357428</v>
+        <v>2403.938841137293</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993472</v>
+        <v>2563.178535773336</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361123</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.542248702568</v>
+        <v>2472.33270548243</v>
       </c>
       <c r="S4" t="n">
-        <v>991.0700018628692</v>
+        <v>2269.860458642732</v>
       </c>
       <c r="T4" t="n">
-        <v>991.0700018628692</v>
+        <v>2269.860458642732</v>
       </c>
       <c r="U4" t="n">
-        <v>991.0700018628692</v>
+        <v>1980.723831634834</v>
       </c>
       <c r="V4" t="n">
-        <v>736.3855136569823</v>
+        <v>1980.723831634834</v>
       </c>
       <c r="W4" t="n">
-        <v>536.4442921896381</v>
+        <v>1980.723831634834</v>
       </c>
       <c r="X4" t="n">
-        <v>536.4442921896381</v>
+        <v>1766.570937199875</v>
       </c>
       <c r="Y4" t="n">
-        <v>315.651713046108</v>
+        <v>1766.570937199875</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>998.2603512320125</v>
+        <v>1021.918444621844</v>
       </c>
       <c r="C5" t="n">
-        <v>629.2978342916008</v>
+        <v>1021.918444621844</v>
       </c>
       <c r="D5" t="n">
-        <v>629.2978342916008</v>
+        <v>663.6527460150933</v>
       </c>
       <c r="E5" t="n">
-        <v>629.2978342916008</v>
+        <v>663.6527460150933</v>
       </c>
       <c r="F5" t="n">
-        <v>532.9721672718592</v>
+        <v>252.6668412254857</v>
       </c>
       <c r="G5" t="n">
         <v>117.2903254719912</v>
@@ -4565,16 +4565,16 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104781</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
         <v>447.831944713551</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477384</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
         <v>1673.478115539971</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2381.347406599813</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U5" t="n">
-        <v>2127.76817854206</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="V5" t="n">
-        <v>2127.76817854206</v>
+        <v>2134.752698217159</v>
       </c>
       <c r="W5" t="n">
-        <v>1774.999523271946</v>
+        <v>1781.984042947045</v>
       </c>
       <c r="X5" t="n">
-        <v>1774.999523271946</v>
+        <v>1408.518284685965</v>
       </c>
       <c r="Y5" t="n">
-        <v>1384.860191296134</v>
+        <v>1408.518284685965</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>150.321083297468</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>598.8031573431335</v>
+        <v>426.7768722128336</v>
       </c>
       <c r="L6" t="n">
-        <v>896.1151064594483</v>
+        <v>724.0888213291483</v>
       </c>
       <c r="M6" t="n">
-        <v>1262.420995951774</v>
+        <v>1164.302981905902</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1554.712543231644</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>919.8493750306872</v>
+        <v>515.1932066844236</v>
       </c>
       <c r="C7" t="n">
-        <v>750.9131921027803</v>
+        <v>346.2570237565167</v>
       </c>
       <c r="D7" t="n">
-        <v>600.7965526904445</v>
+        <v>346.2570237565167</v>
       </c>
       <c r="E7" t="n">
-        <v>452.8834591080514</v>
+        <v>346.2570237565167</v>
       </c>
       <c r="F7" t="n">
-        <v>305.993511610141</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="G7" t="n">
-        <v>305.993511610141</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
@@ -4750,25 +4750,25 @@
         <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1544.862307910904</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T7" t="n">
-        <v>1321.927733452885</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="U7" t="n">
-        <v>1032.809956463284</v>
+        <v>1059.294864927271</v>
       </c>
       <c r="V7" t="n">
-        <v>1032.809956463284</v>
+        <v>804.6103767213841</v>
       </c>
       <c r="W7" t="n">
-        <v>1032.809956463284</v>
+        <v>515.1932066844236</v>
       </c>
       <c r="X7" t="n">
-        <v>1032.809956463284</v>
+        <v>515.1932066844236</v>
       </c>
       <c r="Y7" t="n">
-        <v>1032.809956463284</v>
+        <v>515.1932066844236</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1539.507498611865</v>
+        <v>1477.15851254567</v>
       </c>
       <c r="C8" t="n">
-        <v>1539.507498611865</v>
+        <v>1477.15851254567</v>
       </c>
       <c r="D8" t="n">
-        <v>1539.507498611865</v>
+        <v>1118.892813938919</v>
       </c>
       <c r="E8" t="n">
-        <v>1153.719246013621</v>
+        <v>733.104561340675</v>
       </c>
       <c r="F8" t="n">
-        <v>742.7333412240132</v>
+        <v>467.4816971226878</v>
       </c>
       <c r="G8" t="n">
-        <v>421.1148580461929</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
@@ -4805,13 +4805,13 @@
         <v>189.986887110478</v>
       </c>
       <c r="K8" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135518</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
         <v>1673.478115539971</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2257.170226019558</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U8" t="n">
-        <v>2257.170226019558</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V8" t="n">
-        <v>1926.107338675987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W8" t="n">
-        <v>1926.107338675987</v>
+        <v>2237.224110870871</v>
       </c>
       <c r="X8" t="n">
-        <v>1926.107338675987</v>
+        <v>1863.758352609791</v>
       </c>
       <c r="Y8" t="n">
-        <v>1926.107338675987</v>
+        <v>1863.758352609791</v>
       </c>
     </row>
     <row r="9">
@@ -4866,16 +4866,16 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
@@ -4884,19 +4884,19 @@
         <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>563.7673318682816</v>
+        <v>563.7673318682815</v>
       </c>
       <c r="L9" t="n">
-        <v>1104.091621317939</v>
+        <v>861.0792809845962</v>
       </c>
       <c r="M9" t="n">
-        <v>1470.397510810264</v>
+        <v>1227.385170476922</v>
       </c>
       <c r="N9" t="n">
-        <v>1860.807072136007</v>
+        <v>1617.794731802664</v>
       </c>
       <c r="O9" t="n">
-        <v>2195.735752851538</v>
+        <v>1952.723412518195</v>
       </c>
       <c r="P9" t="n">
         <v>2445.212480716556</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>522.6002072827929</v>
+        <v>918.8893808408909</v>
       </c>
       <c r="C10" t="n">
-        <v>522.6002072827929</v>
+        <v>918.8893808408909</v>
       </c>
       <c r="D10" t="n">
-        <v>452.1490171233264</v>
+        <v>768.7727414285552</v>
       </c>
       <c r="E10" t="n">
-        <v>304.2359235409332</v>
+        <v>620.859647846162</v>
       </c>
       <c r="F10" t="n">
-        <v>157.3459760430229</v>
+        <v>473.9697003482516</v>
       </c>
       <c r="G10" t="n">
-        <v>157.3459760430229</v>
+        <v>305.993511610141</v>
       </c>
       <c r="H10" t="n">
         <v>157.3459760430229</v>
@@ -4984,28 +4984,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1321.927733452885</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1032.809956463284</v>
+        <v>1610.747594851621</v>
       </c>
       <c r="V10" t="n">
-        <v>1032.809956463284</v>
+        <v>1610.747594851621</v>
       </c>
       <c r="W10" t="n">
-        <v>743.392786426323</v>
+        <v>1321.330424814661</v>
       </c>
       <c r="X10" t="n">
-        <v>743.392786426323</v>
+        <v>1321.330424814661</v>
       </c>
       <c r="Y10" t="n">
-        <v>522.6002072827929</v>
+        <v>1100.537845671131</v>
       </c>
     </row>
     <row r="11">
@@ -5036,28 +5036,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,7 +5075,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5121,16 +5121,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>554.5813165460164</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C13" t="n">
-        <v>385.6451336181095</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D13" t="n">
-        <v>235.5284942057738</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1729.113569660651</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1474.429081454764</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1185.011911417804</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>957.0223605197863</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>736.2297813762561</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5273,10 +5273,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5285,16 +5285,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400703</v>
+        <v>950.7540666811346</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400703</v>
+        <v>781.8178837532278</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400703</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>365.9405071576772</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038334</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648818</v>
+        <v>1642.612280691865</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1353.195110654904</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138402</v>
+        <v>1353.195110654904</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.50206557031</v>
+        <v>1132.402531511374</v>
       </c>
     </row>
     <row r="17">
@@ -5510,16 +5510,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2144.05565446885</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1854.980427813048</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1600.295939607161</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1310.8787695702</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1082.889218672183</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,16 +5762,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>768.5380889459582</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C22" t="n">
-        <v>599.6019060180513</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D22" t="n">
-        <v>449.4852666057155</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>301.5721730233224</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>301.5721730233224</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.1865537761979</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>724.7519863413023</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C25" t="n">
-        <v>555.8158034133954</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>380.8823046593499</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>213.6862053742298</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,28 +6145,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
@@ -6184,13 +6184,13 @@
         <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1355.182581213089</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>1127.193030315072</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y25" t="n">
-        <v>906.400451171542</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,10 +6236,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1877.026663243044</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101285</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>149.8982754122182</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,13 +6774,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6929,10 +6929,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6944,13 +6944,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7023,10 +7023,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7151,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.2707707770319</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>634.334587849125</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>484.2179484367892</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>336.3048548543961</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>189.4149073564858</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.9192356072716</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7409,7 +7409,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
@@ -7643,10 +7643,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075811</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7795,10 +7795,10 @@
         <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797186</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,7 +7825,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931273</v>
@@ -7834,13 +7834,13 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W46" t="n">
         <v>1483.79828551875</v>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>151.6735093079757</v>
+        <v>151.673509307991</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>173.3606393942671</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,10 +8070,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>196.3826133675482</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>35.3897227018706</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>74.65481927719981</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>309.1863928326897</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.18437503906578</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>245.4670104377197</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>245.46701043772</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906578</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>-2.680335657228318e-13</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-3.276577142821095e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>-6.810513491977519e-14</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>66.30942345592696</v>
       </c>
       <c r="E2" t="n">
-        <v>14.78528989710444</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>97.49528172075799</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>216.2890584711742</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>111.1976478713722</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922697</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462248</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>40.32043864788582</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>41.54258064659184</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>206.8218058926149</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>98.55338150863777</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24136,10 +24136,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>41.11201973523735</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24175,16 +24175,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>92.12028678808278</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>21.62386594322851</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>27.76311574357368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>122.8084169651565</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>120.3791545843328</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>202.6501519448735</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>70.88187642684009</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-5.988543122513853e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -26314,28 +26314,28 @@
         <v>251542.9259350417</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="E2" t="n">
-        <v>282501.3098915024</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="F2" t="n">
-        <v>282501.3098915021</v>
+        <v>282501.3098915023</v>
       </c>
       <c r="G2" t="n">
-        <v>282501.3098915021</v>
+        <v>282501.3098915023</v>
       </c>
       <c r="H2" t="n">
         <v>282501.3098915023</v>
       </c>
       <c r="I2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="J2" t="n">
         <v>282501.3098915023</v>
-      </c>
-      <c r="J2" t="n">
-        <v>282501.3098915022</v>
       </c>
       <c r="K2" t="n">
         <v>282501.3098915021</v>
@@ -26347,10 +26347,10 @@
         <v>282501.3098915021</v>
       </c>
       <c r="N2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="P2" t="n">
         <v>287364.6194524992</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898924</v>
+        <v>172764.3597898952</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457506</v>
+        <v>500888.8677457508</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042351</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101369.1438127057</v>
+        <v>101369.1438127062</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
@@ -26424,40 +26424,40 @@
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695062</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
+        <v>6287.480531695023</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6287.480531695022</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6287.480531695026</v>
+      </c>
+      <c r="I4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6287.480531695044</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6287.48053169506</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6287.480531695053</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695061</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695037</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478853</v>
       </c>
       <c r="P4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478853</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.0748969909</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-878854.2286500535</v>
+        <v>-879110.0978894616</v>
       </c>
       <c r="C6" t="n">
-        <v>-107947.5844241509</v>
+        <v>-107947.5844241534</v>
       </c>
       <c r="D6" t="n">
-        <v>64816.77536574163</v>
+        <v>64816.77536574169</v>
       </c>
       <c r="E6" t="n">
-        <v>-325797.5682098505</v>
+        <v>-325832.3061352865</v>
       </c>
       <c r="F6" t="n">
-        <v>175091.2995358999</v>
+        <v>175056.5616104643</v>
       </c>
       <c r="G6" t="n">
-        <v>175091.2995359001</v>
+        <v>175056.5616104645</v>
       </c>
       <c r="H6" t="n">
-        <v>175091.2995358999</v>
+        <v>175056.5616104644</v>
       </c>
       <c r="I6" t="n">
-        <v>175091.2995359001</v>
+        <v>175056.5616104643</v>
       </c>
       <c r="J6" t="n">
-        <v>5677.282709852007</v>
+        <v>5642.544784416401</v>
       </c>
       <c r="K6" t="n">
-        <v>175091.2995358999</v>
+        <v>175056.5616104644</v>
       </c>
       <c r="L6" t="n">
-        <v>175091.2995358998</v>
+        <v>175056.5616104642</v>
       </c>
       <c r="M6" t="n">
-        <v>44206.8426316649</v>
+        <v>44172.10470622906</v>
       </c>
       <c r="N6" t="n">
-        <v>175091.2995359001</v>
+        <v>175056.5616104643</v>
       </c>
       <c r="O6" t="n">
-        <v>150494.4458101636</v>
+        <v>150494.4458101635</v>
       </c>
       <c r="P6" t="n">
         <v>169922.1638037953</v>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498446</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>647.4981915352464</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522338</v>
+        <v>189.7254341522369</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918292</v>
+        <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>288.373618164756</v>
       </c>
       <c r="E2" t="n">
-        <v>367.1450801751573</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27543,16 +27543,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>88.58118908392021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>13.69828989842745</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>311.5136353921673</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>277.5022727859098</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68.00100456366673</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.069511485018239</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>143.9094101659041</v>
       </c>
       <c r="G8" t="n">
-        <v>93.12272503582727</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>78.86879476034049</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>250.3528846704715</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28144,13 +28144,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090895</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625589</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115544</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066899</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611376</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014944</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682859</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658691</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485902</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775962</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330909</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325349</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282135</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>13.1981573349479</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072716</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674106</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5797930774315</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307779</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859909</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126156</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605116</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911979</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240738</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>383.813367425716</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>308.04406494333</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028912</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526432</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969226</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993435</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364544</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651429</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351908</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777208</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855604</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711387</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600316</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932508</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840047</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184402</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>163.569617135151</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311392</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>60.8099313251997</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567081</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965196</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189623</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31525,37 +31525,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179232</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,7 +31598,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31619,19 +31619,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31677,25 +31677,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31704,16 +31704,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>220.7280629601522</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31853,7 +31853,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>225.4828684302377</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>583.1096135868581</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>231.5286848890169</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>188.4731159523455</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,16 +33500,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33743,13 +33743,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33968,19 +33968,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,7 +33989,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520774</v>
+        <v>243.9449667520763</v>
       </c>
       <c r="K2" t="n">
-        <v>315.1028144241328</v>
+        <v>315.1028144241465</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>240.0230113315052</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410131</v>
+        <v>299.061178341011</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>308.560713369276</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269035</v>
+        <v>277.8951710269015</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938092</v>
+        <v>524.1263114938075</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>315.5952546185448</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138521</v>
+        <v>39.52180169138441</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.662274559733</v>
+        <v>151.6622745597324</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643756</v>
+        <v>387.1148251643746</v>
       </c>
       <c r="L3" t="n">
-        <v>385.0685921749045</v>
+        <v>582.5482980840951</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>266.6055873691778</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407405</v>
+        <v>288.2160307407388</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580011</v>
+        <v>241.2171229812699</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289998</v>
+        <v>370.4522708965467</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527188</v>
+        <v>276.0148132527179</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-3.126388037344441e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883267</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452559</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203478</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550914</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632333</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324799</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000445</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944484</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34951,7 +34951,7 @@
         <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510055</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
         <v>185.6449372342476</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>99.51639189358414</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>453.0121960057227</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>444.6607682593467</v>
       </c>
       <c r="N6" t="n">
         <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025567</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656114</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171355</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K9" t="n">
         <v>453.0121960057227</v>
       </c>
       <c r="L9" t="n">
-        <v>545.7821105552093</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
         <v>370.0059489821469</v>
@@ -35264,13 +35264,13 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025567</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131503</v>
+        <v>497.4637052508702</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297623</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978362</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35337,10 +35337,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
@@ -35349,7 +35349,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35501,7 +35501,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>82.88662398579324</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394599</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409634</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>440.9755796648398</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>92.97430510914269</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>45.87687150790109</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,13 +37151,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37391,13 +37391,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37616,19 +37616,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,7 +37637,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
